--- a/medicine/Pharmacie/Moutarde_azotée/Moutarde_azotée.xlsx
+++ b/medicine/Pharmacie/Moutarde_azotée/Moutarde_azotée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moutarde_azot%C3%A9e</t>
+          <t>Moutarde_azotée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les moutardes azotées sont des agents alkylants utilisés dans le traitement d'un certain nombre de cancers.
 Elles dérivent du gaz moutarde par le remplacement de l'atome de soufre de cette molécule par un groupement azoté isostère. Les deux chaînes chloroéthyles sont communes à cette classe d'anticancéreux.
@@ -506,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moutarde_azot%C3%A9e</t>
+          <t>Moutarde_azotée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,7 +536,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Legheand, Mécanismes d'action des agents anticancéreux, dans Lyon Pharmaceutique, 1979, p. 371-385
  Portail de la chimie   Portail de la médecine   Portail de la pharmacie                   </t>
